--- a/assets/disciplinas/LOQ4228.xlsx
+++ b/assets/disciplinas/LOQ4228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Conduzir os alunos no desenvolvimento de um projeto de conclusão de curso sobre tema específico relacionado a engenharia de produção.</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>198273 - Domingos Savio Giordani</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1) Metodologia Cientifica. 2) Projeto de Monografia. 3) Métodos de Pesquisa. 4) Normas de um Projeto de Pesquisa.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1  Metodologia Cientifica: Concepção e definição. 2  Monografia Cientifica: O que é um projeto de pesquisa. As etapas de um projeto de pesquisa. 3  Métodos de Pesquisa utilizados na Engenharia de Produção  4- Pontos essenciais de um projeto de TCC. 5  Pontos essenciais de uma monografia de TCC. 6  Normas para elaboração de Referências Bibliográficas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Desenvolvimento e apresentação do Projeto monografia a ser desenvolvida na disciplina de Trabalho de Graduação em Engenharia de Produção II, conforme norma do Curso de Engenharia de Produção</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Avaliação Ad hoc por 2 examinadores. A nota da disciplina será a média das duas notas</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Reapresentação do trabalho modificado para nova avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Cauchick-Miguel, P. A.,   Metodologia de pesquisa em engenharia de produção e gestão de operações / Afonso Fleury ... [et al.] ; coordenação . - 3. ed. - Rio de Janeiro : Elsevier, 2018. Cauchick-Miguel, P. A.,   Metodologia de pesquisa em engenharia , 1. ed. - Rio de Janeiro : GEN LTC, 2019. BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005.GIL, A.C. Como elaborar projetos de pesquisa. 5 ed. Atlas, São Paulo, 2010.MEDEIROS, J. B. Redação Cientifica: A Prática de Fichamentos, Resumos e Resenhas. 11 ed. São Paulo: Atlas, 2009</t>
   </si>
 </sst>
 </file>
@@ -486,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,34 +608,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -658,64 +652,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4228.xlsx
+++ b/assets/disciplinas/LOQ4228.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,22 +67,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Conduzir os alunos no desenvolvimento de um projeto de conclusão de curso sobre tema específico relacionado a engenharia de produção.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Lead students in the development of a course ending project on a specific topic related to industrial engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Lead students in the development of a course ending project on a specific topic related to industrial engineering.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1) Metodologia Cientifica. 2) Projeto de Monografia. 3) Métodos de Pesquisa. 4) Normas de um Projeto de Pesquisa.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1  Metodologia Cientifica: Concepção e definição. 2  Monografia Cientifica: O que é um projeto de pesquisa. As etapas de um projeto de pesquisa. 3  Métodos de Pesquisa utilizados na Engenharia de Produção  4- Pontos essenciais de um projeto de TCC. 5  Pontos essenciais de uma monografia de TCC. 6  Normas para elaboração de Referências Bibliográficas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Desenvolvimento e apresentação do Projeto monografia a ser desenvolvida na disciplina de Trabalho de Graduação em Engenharia de Produção II, conforme norma do Curso de Engenharia de Produção</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Desenvolvimento e apresentação do Projeto monografia a ser desenvolvida na disciplina de Trabalho de Graduação em Engenharia de Produção II, conforme norma do Curso de Engenharia de Produção</t>
+    <t>Avaliação Ad hoc por 2 examinadores. A nota da disciplina será a média das duas notas</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Avaliação Ad hoc por 2 examinadores. A nota da disciplina será a média das duas notas</t>
+    <t>Reapresentação do trabalho modificado para nova avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Reapresentação do trabalho modificado para nova avaliação</t>
+    <t>Cauchick-Miguel, P. A.,   Metodologia de pesquisa em engenharia de produção e gestão de operações / Afonso Fleury ... [et al.] ; coordenação . - 3. ed. - Rio de Janeiro : Elsevier, 2018. Cauchick-Miguel, P. A.,   Metodologia de pesquisa em engenharia , 1. ed. - Rio de Janeiro : GEN LTC, 2019. BOOTH, W.; COLOMB, G.; WILLIAMS, J. A arte da Pesquisa. 3 ed. Martins Fontes. São Paulo. 2005.GIL, A.C. Como elaborar projetos de pesquisa. 5 ed. Atlas, São Paulo, 2010.MEDEIROS, J. B. Redação Cientifica: A Prática de Fichamentos, Resumos e Resenhas. 11 ed. São Paulo: Atlas, 2009</t>
   </si>
 </sst>
 </file>
@@ -477,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -608,37 +617,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -652,53 +658,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
